--- a/wcsm9seleniumproject/src/main/resources/ActiTimeTestData.xlsx
+++ b/wcsm9seleniumproject/src/main/resources/ActiTimeTestData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="invalidcreds" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -38,7 +39,10 @@
     <t xml:space="preserve">ad_min</t>
   </si>
   <si>
-    <t xml:space="preserve">mana_ger</t>
+    <t xml:space="preserve">addmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manageer</t>
   </si>
   <si>
     <t xml:space="preserve">123min                     </t>
@@ -154,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,6 +184,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,7 +210,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -247,7 +255,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -269,11 +277,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -282,22 +292,24 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,15 +322,115 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" display="ad@min"/>
+    <hyperlink ref="B6" r:id="rId2" display="mana@ger"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/wcsm9seleniumproject/src/main/resources/ActiTimeTestData.xlsx
+++ b/wcsm9seleniumproject/src/main/resources/ActiTimeTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve">ad123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73g682</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,14 +186,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,8 +252,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,8 +327,12 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -354,7 +356,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -425,10 +427,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
